--- a/önlab2.xlsx
+++ b/önlab2.xlsx
@@ -5,20 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Baki\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TomiKJ\Git Hub\IP-stats-trends\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="7365" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
     <sheet name="Munka2" sheetId="2" r:id="rId2"/>
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
+    <sheet name="Munka4" sheetId="4" r:id="rId4"/>
+    <sheet name="Munka5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="bme_eqix_darab_mx_20_12_01" localSheetId="0">Munka1!$A$1:$DJ$88</definedName>
+    <definedName name="köcsönös_információ" localSheetId="4">Munka5!$A$2:$B$5</definedName>
     <definedName name="perem_eloszlas" localSheetId="2">Munka3!$A$2:$D$11</definedName>
+    <definedName name="Új_szöveges_dokumentum" localSheetId="3">Munka4!$A$2:$B$5</definedName>
+    <definedName name="Új_szöveges_dokumentum_1" localSheetId="3">Munka4!$A$10:$C$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -151,9 +156,36 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="perem eloszlas" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="2" name="köcsönös információ" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\TomiKJ\x\a\köcsönös információ.txt" thousands=" " space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="perem eloszlas" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\x\a\perem eloszlas.txt" decimal="," thousands=" " space="1" consecutive="1">
       <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="Új szöveges dokumentum" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\TomiKJ\x\a\Új szöveges dokumentum.txt" thousands=" " space="1" comma="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="Új szöveges dokumentum1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\TomiKJ\x\a\Új szöveges dokumentum.txt" thousands=" " space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
         <textField/>
         <textField/>
       </textFields>
@@ -163,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t>bme</t>
   </si>
@@ -397,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -531,11 +563,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -547,12 +594,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -567,6 +608,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -606,7 +656,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="perem eloszlas" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="perem eloszlas" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Új szöveges dokumentum_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Új szöveges dokumentum" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="köcsönös információ" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31199,7 +31261,7 @@
   <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31324,8 +31386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31337,31 +31399,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -31375,21 +31437,21 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -31403,21 +31465,21 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -31431,21 +31493,21 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -31459,16 +31521,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -31480,4 +31542,339 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.7389922715933697E-2</v>
+      </c>
+      <c r="C2">
+        <v>6.1723292945836901E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.106968629669336</v>
+      </c>
+      <c r="E2">
+        <v>0.124838656919162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2.9456147447638598E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.72573985623236E-2</v>
+      </c>
+      <c r="D3">
+        <v>8.3894418695722398E-3</v>
+      </c>
+      <c r="E3" s="24">
+        <v>7.3690012471105497E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2.9485941295235199E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.72877678604476E-2</v>
+      </c>
+      <c r="D4">
+        <v>8.4280292348128706E-3</v>
+      </c>
+      <c r="E4" s="24">
+        <v>7.8223655200594097E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2.9485941295235199E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.72877678604476E-2</v>
+      </c>
+      <c r="D5">
+        <v>8.4280292348128706E-3</v>
+      </c>
+      <c r="E5" s="24">
+        <v>7.8223655200594097E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23">
+        <v>0.97926597607232702</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0.97695648426540205</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0.96130035127637903</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0.95560770479088997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1.0071997513406199</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1.01142237864891</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1.05987953907614</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1.0804389927088001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1.00716995749302</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1.01139200935079</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1.0598409517109</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1.08036813805485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1.00716995749302</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1.01139200935079</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1.0598409517109</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1.08036813805485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/önlab2.xlsx
+++ b/önlab2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TomiKJ\Git Hub\IP-stats-trends\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Baki\Documents\GitHub\IP-stats-trends\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="7365" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _H_U_F_-;\-* #,##0.00\ _H_U_F_-;_-* &quot;-&quot;??\ _H_U_F_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.000000000\ _H_U_F_-;\-* #,##0.000000000\ _H_U_F_-;_-* &quot;-&quot;??\ _H_U_F_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="_-* #,##0.000000000000000000000\ _H_U_F_-;\-* #,##0.000000000000000000000\ _H_U_F_-;_-* &quot;-&quot;??\ _H_U_F_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0\ _H_U_F_-;\-* #,##0\ _H_U_F_-;_-* &quot;-&quot;??\ _H_U_F_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +407,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -579,10 +593,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -602,6 +617,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,11 +632,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Ezres" xfId="1" builtinId="3"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -660,11 +680,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Új szöveges dokumentum_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Új szöveges dokumentum" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Új szöveges dokumentum" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Új szöveges dokumentum_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -955,18 +975,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DJ88"/>
+  <dimension ref="A1:DN91"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="DY90" sqref="DX90:DY90"/>
+    <sheetView tabSelected="1" topLeftCell="DC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DL89" sqref="DL89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="114" width="0.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="114" width="23.140625" customWidth="1"/>
+    <col min="115" max="115" width="22.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2265095544</v>
       </c>
@@ -1309,8 +1334,16 @@
       <c r="DJ1">
         <v>0</v>
       </c>
+      <c r="DK1" s="26">
+        <f>SUM(A1:DJ1)</f>
+        <v>2273248978</v>
+      </c>
+      <c r="DL1" s="27">
+        <f>DK1/2^32</f>
+        <v>0.52928202273324132</v>
+      </c>
     </row>
-    <row r="2" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11128019</v>
       </c>
@@ -1653,8 +1686,19 @@
       <c r="DJ2">
         <v>6144</v>
       </c>
+      <c r="DK2" s="26">
+        <f t="shared" ref="DK2:DK65" si="0">SUM(A2:DJ2)</f>
+        <v>2020595905</v>
+      </c>
+      <c r="DL2" s="28">
+        <f t="shared" ref="DL2:DL26" si="1">DK2/2^32</f>
+        <v>0.47045664512552321</v>
+      </c>
+      <c r="DN2">
+        <v>0.47045664512552299</v>
+      </c>
     </row>
-    <row r="3" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>151552</v>
       </c>
@@ -1997,8 +2041,16 @@
       <c r="DJ3">
         <v>0</v>
       </c>
+      <c r="DK3" s="26">
+        <f t="shared" si="0"/>
+        <v>636928</v>
+      </c>
+      <c r="DL3" s="27">
+        <f t="shared" si="1"/>
+        <v>1.4829635620117188E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>38356</v>
       </c>
@@ -2341,8 +2393,16 @@
       <c r="DJ4">
         <v>0</v>
       </c>
+      <c r="DK4" s="26">
+        <f t="shared" si="0"/>
+        <v>78313</v>
+      </c>
+      <c r="DL4" s="27">
+        <f t="shared" si="1"/>
+        <v>1.8233666196465492E-5</v>
+      </c>
     </row>
-    <row r="5" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32811</v>
       </c>
@@ -2685,8 +2745,16 @@
       <c r="DJ5">
         <v>0</v>
       </c>
+      <c r="DK5" s="26">
+        <f t="shared" si="0"/>
+        <v>33350</v>
+      </c>
+      <c r="DL5" s="27">
+        <f t="shared" si="1"/>
+        <v>7.7649019658565521E-6</v>
+      </c>
     </row>
-    <row r="6" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>65</v>
       </c>
@@ -3029,8 +3097,16 @@
       <c r="DJ6">
         <v>0</v>
       </c>
+      <c r="DK6" s="26">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="DL6" s="27">
+        <f t="shared" si="1"/>
+        <v>1.5133991837501526E-8</v>
+      </c>
     </row>
-    <row r="7" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2173</v>
       </c>
@@ -3373,8 +3449,16 @@
       <c r="DJ7">
         <v>0</v>
       </c>
+      <c r="DK7" s="26">
+        <f t="shared" si="0"/>
+        <v>174488</v>
+      </c>
+      <c r="DL7" s="27">
+        <f t="shared" si="1"/>
+        <v>4.0626153349876404E-5</v>
+      </c>
     </row>
-    <row r="8" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -3717,8 +3801,16 @@
       <c r="DJ8">
         <v>0</v>
       </c>
+      <c r="DK8" s="26">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="DL8" s="27">
+        <f t="shared" si="1"/>
+        <v>1.3969838619232178E-7</v>
+      </c>
     </row>
-    <row r="9" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>133</v>
       </c>
@@ -4061,8 +4153,16 @@
       <c r="DJ9">
         <v>0</v>
       </c>
+      <c r="DK9" s="26">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="DL9" s="27">
+        <f t="shared" si="1"/>
+        <v>3.9581209421157837E-8</v>
+      </c>
     </row>
-    <row r="10" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>768</v>
       </c>
@@ -4405,8 +4505,16 @@
       <c r="DJ10">
         <v>0</v>
       </c>
+      <c r="DK10" s="26">
+        <f t="shared" si="0"/>
+        <v>1037</v>
+      </c>
+      <c r="DL10" s="27">
+        <f t="shared" si="1"/>
+        <v>2.4144537746906281E-7</v>
+      </c>
     </row>
-    <row r="11" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -4749,8 +4857,16 @@
       <c r="DJ11">
         <v>0</v>
       </c>
+      <c r="DK11" s="26">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="DL11" s="27">
+        <f t="shared" si="1"/>
+        <v>1.9324943423271179E-8</v>
+      </c>
     </row>
-    <row r="12" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>256</v>
       </c>
@@ -5093,8 +5209,16 @@
       <c r="DJ12">
         <v>0</v>
       </c>
+      <c r="DK12" s="26">
+        <f t="shared" si="0"/>
+        <v>10270</v>
+      </c>
+      <c r="DL12" s="27">
+        <f t="shared" si="1"/>
+        <v>2.3911707103252411E-6</v>
+      </c>
     </row>
-    <row r="13" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -5437,8 +5561,16 @@
       <c r="DJ13">
         <v>0</v>
       </c>
+      <c r="DK13" s="26">
+        <f t="shared" si="0"/>
+        <v>16719</v>
+      </c>
+      <c r="DL13" s="27">
+        <f t="shared" si="1"/>
+        <v>3.8926955312490463E-6</v>
+      </c>
     </row>
-    <row r="14" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5781,8 +5913,16 @@
       <c r="DJ14">
         <v>0</v>
       </c>
+      <c r="DK14" s="26">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="DL14" s="27">
+        <f t="shared" si="1"/>
+        <v>6.0070306062698364E-8</v>
+      </c>
     </row>
-    <row r="15" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -6125,8 +6265,16 @@
       <c r="DJ15">
         <v>0</v>
       </c>
+      <c r="DK15" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="DL15" s="27">
+        <f t="shared" si="1"/>
+        <v>9.3132257461547852E-10</v>
+      </c>
     </row>
-    <row r="16" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:118" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6872</v>
       </c>
@@ -6469,8 +6617,16 @@
       <c r="DJ16">
         <v>0</v>
       </c>
+      <c r="DK16" s="26">
+        <f t="shared" si="0"/>
+        <v>43196</v>
+      </c>
+      <c r="DL16" s="27">
+        <f t="shared" si="1"/>
+        <v>1.0057352483272552E-5</v>
+      </c>
     </row>
-    <row r="17" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -6813,8 +6969,16 @@
       <c r="DJ17">
         <v>0</v>
       </c>
+      <c r="DK17" s="26">
+        <f t="shared" si="0"/>
+        <v>34825</v>
+      </c>
+      <c r="DL17" s="27">
+        <f t="shared" si="1"/>
+        <v>8.1083271652460098E-6</v>
+      </c>
     </row>
-    <row r="18" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>256</v>
       </c>
@@ -7157,8 +7321,16 @@
       <c r="DJ18">
         <v>0</v>
       </c>
+      <c r="DK18" s="26">
+        <f t="shared" si="0"/>
+        <v>33792</v>
+      </c>
+      <c r="DL18" s="27">
+        <f t="shared" si="1"/>
+        <v>7.8678131103515625E-6</v>
+      </c>
     </row>
-    <row r="19" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -7501,8 +7673,16 @@
       <c r="DJ19">
         <v>0</v>
       </c>
+      <c r="DK19" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="DL19" s="27">
+        <f t="shared" si="1"/>
+        <v>9.3132257461547852E-10</v>
+      </c>
     </row>
-    <row r="20" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -7845,8 +8025,16 @@
       <c r="DJ20">
         <v>0</v>
       </c>
+      <c r="DK20" s="26">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+      <c r="DL20" s="27">
+        <f t="shared" si="1"/>
+        <v>1.9208528101444244E-7</v>
+      </c>
     </row>
-    <row r="21" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8189,8 +8377,16 @@
       <c r="DJ21">
         <v>0</v>
       </c>
+      <c r="DK21" s="26">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+      <c r="DL21" s="27">
+        <f t="shared" si="1"/>
+        <v>6.9616362452507019E-8</v>
+      </c>
     </row>
-    <row r="22" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>32</v>
       </c>
@@ -8533,8 +8729,16 @@
       <c r="DJ22">
         <v>0</v>
       </c>
+      <c r="DK22" s="26">
+        <f t="shared" si="0"/>
+        <v>3202</v>
+      </c>
+      <c r="DL22" s="27">
+        <f t="shared" si="1"/>
+        <v>7.4552372097969055E-7</v>
+      </c>
     </row>
-    <row r="23" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>396</v>
       </c>
@@ -8877,8 +9081,16 @@
       <c r="DJ23">
         <v>0</v>
       </c>
+      <c r="DK23" s="26">
+        <f t="shared" si="0"/>
+        <v>5554</v>
+      </c>
+      <c r="DL23" s="27">
+        <f t="shared" si="1"/>
+        <v>1.2931413948535919E-6</v>
+      </c>
     </row>
-    <row r="24" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>288</v>
       </c>
@@ -9221,8 +9433,16 @@
       <c r="DJ24">
         <v>0</v>
       </c>
+      <c r="DK24" s="26">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="DL24" s="27">
+        <f t="shared" si="1"/>
+        <v>3.14321368932724E-7</v>
+      </c>
     </row>
-    <row r="25" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>64</v>
       </c>
@@ -9565,8 +9785,16 @@
       <c r="DJ25">
         <v>0</v>
       </c>
+      <c r="DK25" s="26">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+      <c r="DL25" s="27">
+        <f t="shared" si="1"/>
+        <v>7.7532604336738586E-8</v>
+      </c>
     </row>
-    <row r="26" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -9909,8 +10137,16 @@
       <c r="DJ26">
         <v>0</v>
       </c>
+      <c r="DK26" s="26">
+        <f t="shared" si="0"/>
+        <v>5130</v>
+      </c>
+      <c r="DL26" s="27">
+        <f t="shared" si="1"/>
+        <v>1.1944212019443512E-6</v>
+      </c>
     </row>
-    <row r="27" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>944</v>
       </c>
@@ -10253,8 +10489,12 @@
       <c r="DJ27">
         <v>0</v>
       </c>
+      <c r="DK27" s="26">
+        <f t="shared" si="0"/>
+        <v>2395</v>
+      </c>
     </row>
-    <row r="28" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1308</v>
       </c>
@@ -10597,8 +10837,12 @@
       <c r="DJ28">
         <v>0</v>
       </c>
+      <c r="DK28" s="26">
+        <f t="shared" si="0"/>
+        <v>2630</v>
+      </c>
     </row>
-    <row r="29" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>256</v>
       </c>
@@ -10941,8 +11185,12 @@
       <c r="DJ29">
         <v>0</v>
       </c>
+      <c r="DK29" s="26">
+        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
     </row>
-    <row r="30" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32</v>
       </c>
@@ -11285,8 +11533,12 @@
       <c r="DJ30">
         <v>0</v>
       </c>
+      <c r="DK30" s="26">
+        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
     </row>
-    <row r="31" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -11629,8 +11881,12 @@
       <c r="DJ31">
         <v>0</v>
       </c>
+      <c r="DK31" s="26">
+        <f t="shared" si="0"/>
+        <v>421</v>
+      </c>
     </row>
-    <row r="32" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:116" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>512</v>
       </c>
@@ -11973,8 +12229,12 @@
       <c r="DJ32">
         <v>0</v>
       </c>
+      <c r="DK32" s="26">
+        <f t="shared" si="0"/>
+        <v>1061</v>
+      </c>
     </row>
-    <row r="33" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>256</v>
       </c>
@@ -12317,8 +12577,12 @@
       <c r="DJ33">
         <v>0</v>
       </c>
+      <c r="DK33" s="26">
+        <f t="shared" si="0"/>
+        <v>1041</v>
+      </c>
     </row>
-    <row r="34" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -12661,8 +12925,12 @@
       <c r="DJ34">
         <v>0</v>
       </c>
+      <c r="DK34" s="26">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
     </row>
-    <row r="35" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>592</v>
       </c>
@@ -13005,8 +13273,12 @@
       <c r="DJ35">
         <v>0</v>
       </c>
+      <c r="DK35" s="26">
+        <f t="shared" si="0"/>
+        <v>1202</v>
+      </c>
     </row>
-    <row r="36" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1024</v>
       </c>
@@ -13349,8 +13621,12 @@
       <c r="DJ36">
         <v>0</v>
       </c>
+      <c r="DK36" s="26">
+        <f t="shared" si="0"/>
+        <v>6106</v>
+      </c>
     </row>
-    <row r="37" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10304</v>
       </c>
@@ -13693,8 +13969,12 @@
       <c r="DJ37">
         <v>0</v>
       </c>
+      <c r="DK37" s="26">
+        <f t="shared" si="0"/>
+        <v>10636</v>
+      </c>
     </row>
-    <row r="38" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>272</v>
       </c>
@@ -14037,8 +14317,12 @@
       <c r="DJ38">
         <v>0</v>
       </c>
+      <c r="DK38" s="26">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
     </row>
-    <row r="39" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>293</v>
       </c>
@@ -14381,8 +14665,12 @@
       <c r="DJ39">
         <v>0</v>
       </c>
+      <c r="DK39" s="26">
+        <f t="shared" si="0"/>
+        <v>981</v>
+      </c>
     </row>
-    <row r="40" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -14725,8 +15013,12 @@
       <c r="DJ40">
         <v>0</v>
       </c>
+      <c r="DK40" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1024</v>
       </c>
@@ -15069,8 +15361,12 @@
       <c r="DJ41">
         <v>0</v>
       </c>
+      <c r="DK41" s="26">
+        <f t="shared" si="0"/>
+        <v>1032</v>
+      </c>
     </row>
-    <row r="42" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>256</v>
       </c>
@@ -15413,8 +15709,12 @@
       <c r="DJ42">
         <v>0</v>
       </c>
+      <c r="DK42" s="26">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
     </row>
-    <row r="43" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>352</v>
       </c>
@@ -15757,8 +16057,12 @@
       <c r="DJ43">
         <v>0</v>
       </c>
+      <c r="DK43" s="26">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
     </row>
-    <row r="44" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>136</v>
       </c>
@@ -16101,8 +16405,12 @@
       <c r="DJ44">
         <v>0</v>
       </c>
+      <c r="DK44" s="26">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
     </row>
-    <row r="45" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>328</v>
       </c>
@@ -16445,8 +16753,12 @@
       <c r="DJ45">
         <v>0</v>
       </c>
+      <c r="DK45" s="26">
+        <f t="shared" si="0"/>
+        <v>710</v>
+      </c>
     </row>
-    <row r="46" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>256</v>
       </c>
@@ -16789,8 +17101,12 @@
       <c r="DJ46">
         <v>0</v>
       </c>
+      <c r="DK46" s="26">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
     </row>
-    <row r="47" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>816</v>
       </c>
@@ -17133,8 +17449,12 @@
       <c r="DJ47">
         <v>0</v>
       </c>
+      <c r="DK47" s="26">
+        <f t="shared" si="0"/>
+        <v>1272</v>
+      </c>
     </row>
-    <row r="48" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8</v>
       </c>
@@ -17477,8 +17797,12 @@
       <c r="DJ48">
         <v>0</v>
       </c>
+      <c r="DK48" s="26">
+        <f t="shared" si="0"/>
+        <v>402</v>
+      </c>
     </row>
-    <row r="49" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -17821,8 +18145,12 @@
       <c r="DJ49">
         <v>0</v>
       </c>
+      <c r="DK49" s="26">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
     </row>
-    <row r="50" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16</v>
       </c>
@@ -18165,8 +18493,12 @@
       <c r="DJ50">
         <v>0</v>
       </c>
+      <c r="DK50" s="26">
+        <f t="shared" si="0"/>
+        <v>293</v>
+      </c>
     </row>
-    <row r="51" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>264</v>
       </c>
@@ -18509,8 +18841,12 @@
       <c r="DJ51">
         <v>0</v>
       </c>
+      <c r="DK51" s="26">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
     </row>
-    <row r="52" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>256</v>
       </c>
@@ -18853,8 +19189,12 @@
       <c r="DJ52">
         <v>0</v>
       </c>
+      <c r="DK52" s="26">
+        <f t="shared" si="0"/>
+        <v>648</v>
+      </c>
     </row>
-    <row r="53" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>144</v>
       </c>
@@ -19197,8 +19537,12 @@
       <c r="DJ53">
         <v>0</v>
       </c>
+      <c r="DK53" s="26">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
     </row>
-    <row r="54" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>256</v>
       </c>
@@ -19541,8 +19885,12 @@
       <c r="DJ54">
         <v>0</v>
       </c>
+      <c r="DK54" s="26">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
     </row>
-    <row r="55" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>256</v>
       </c>
@@ -19885,8 +20233,12 @@
       <c r="DJ55">
         <v>0</v>
       </c>
+      <c r="DK55" s="26">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
     </row>
-    <row r="56" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>8</v>
       </c>
@@ -20229,8 +20581,12 @@
       <c r="DJ56">
         <v>0</v>
       </c>
+      <c r="DK56" s="26">
+        <f t="shared" si="0"/>
+        <v>1301</v>
+      </c>
     </row>
-    <row r="57" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>40</v>
       </c>
@@ -20573,8 +20929,12 @@
       <c r="DJ57">
         <v>0</v>
       </c>
+      <c r="DK57" s="26">
+        <f t="shared" si="0"/>
+        <v>1093</v>
+      </c>
     </row>
-    <row r="58" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>24</v>
       </c>
@@ -20917,8 +21277,12 @@
       <c r="DJ58">
         <v>0</v>
       </c>
+      <c r="DK58" s="26">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
     </row>
-    <row r="59" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>256</v>
       </c>
@@ -21261,8 +21625,12 @@
       <c r="DJ59">
         <v>0</v>
       </c>
+      <c r="DK59" s="26">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
     </row>
-    <row r="60" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>256</v>
       </c>
@@ -21605,8 +21973,12 @@
       <c r="DJ60">
         <v>0</v>
       </c>
+      <c r="DK60" s="26">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
     </row>
-    <row r="61" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>512</v>
       </c>
@@ -21949,8 +22321,12 @@
       <c r="DJ61">
         <v>0</v>
       </c>
+      <c r="DK61" s="26">
+        <f t="shared" si="0"/>
+        <v>517</v>
+      </c>
     </row>
-    <row r="62" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>256</v>
       </c>
@@ -22293,8 +22669,12 @@
       <c r="DJ62">
         <v>0</v>
       </c>
+      <c r="DK62" s="26">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
     </row>
-    <row r="63" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>256</v>
       </c>
@@ -22637,8 +23017,12 @@
       <c r="DJ63">
         <v>0</v>
       </c>
+      <c r="DK63" s="26">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
     </row>
-    <row r="64" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20</v>
       </c>
@@ -22981,8 +23365,12 @@
       <c r="DJ64">
         <v>0</v>
       </c>
+      <c r="DK64" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="65" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -23325,8 +23713,12 @@
       <c r="DJ65">
         <v>0</v>
       </c>
+      <c r="DK65" s="26">
+        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
     </row>
-    <row r="66" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -23669,8 +24061,12 @@
       <c r="DJ66">
         <v>0</v>
       </c>
+      <c r="DK66" s="26">
+        <f t="shared" ref="DK66:DK88" si="2">SUM(A66:DJ66)</f>
+        <v>64</v>
+      </c>
     </row>
-    <row r="67" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -24013,8 +24409,12 @@
       <c r="DJ67">
         <v>0</v>
       </c>
+      <c r="DK67" s="26">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="68" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -24357,8 +24757,12 @@
       <c r="DJ68">
         <v>0</v>
       </c>
+      <c r="DK68" s="26">
+        <f t="shared" si="2"/>
+        <v>277</v>
+      </c>
     </row>
-    <row r="69" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -24701,8 +25105,12 @@
       <c r="DJ69">
         <v>0</v>
       </c>
+      <c r="DK69" s="26">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
     </row>
-    <row r="70" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0</v>
       </c>
@@ -25045,8 +25453,12 @@
       <c r="DJ70">
         <v>0</v>
       </c>
+      <c r="DK70" s="26">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
     </row>
-    <row r="71" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -25389,8 +25801,12 @@
       <c r="DJ71">
         <v>0</v>
       </c>
+      <c r="DK71" s="26">
+        <f t="shared" si="2"/>
+        <v>532</v>
+      </c>
     </row>
-    <row r="72" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0</v>
       </c>
@@ -25733,8 +26149,12 @@
       <c r="DJ72">
         <v>0</v>
       </c>
+      <c r="DK72" s="26">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
     </row>
-    <row r="73" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
@@ -26077,8 +26497,12 @@
       <c r="DJ73">
         <v>0</v>
       </c>
+      <c r="DK73" s="26">
+        <f t="shared" si="2"/>
+        <v>264</v>
+      </c>
     </row>
-    <row r="74" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -26421,8 +26845,12 @@
       <c r="DJ74">
         <v>0</v>
       </c>
+      <c r="DK74" s="26">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
     </row>
-    <row r="75" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -26765,8 +27193,12 @@
       <c r="DJ75">
         <v>0</v>
       </c>
+      <c r="DK75" s="26">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
     </row>
-    <row r="76" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -27109,8 +27541,12 @@
       <c r="DJ76">
         <v>0</v>
       </c>
+      <c r="DK76" s="26">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="77" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0</v>
       </c>
@@ -27453,8 +27889,12 @@
       <c r="DJ77">
         <v>0</v>
       </c>
+      <c r="DK77" s="26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="78" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -27797,8 +28237,12 @@
       <c r="DJ78">
         <v>0</v>
       </c>
+      <c r="DK78" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="79" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -28141,8 +28585,12 @@
       <c r="DJ79">
         <v>0</v>
       </c>
+      <c r="DK79" s="26">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="80" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -28485,8 +28933,12 @@
       <c r="DJ80">
         <v>0</v>
       </c>
+      <c r="DK80" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0</v>
       </c>
@@ -28829,8 +29281,12 @@
       <c r="DJ81">
         <v>0</v>
       </c>
+      <c r="DK81" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0</v>
       </c>
@@ -29173,8 +29629,12 @@
       <c r="DJ82">
         <v>0</v>
       </c>
+      <c r="DK82" s="26">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="83" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0</v>
       </c>
@@ -29517,8 +29977,12 @@
       <c r="DJ83">
         <v>0</v>
       </c>
+      <c r="DK83" s="26">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="84" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0</v>
       </c>
@@ -29861,8 +30325,12 @@
       <c r="DJ84">
         <v>0</v>
       </c>
+      <c r="DK84" s="26">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="85" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0</v>
       </c>
@@ -30205,8 +30673,12 @@
       <c r="DJ85">
         <v>0</v>
       </c>
+      <c r="DK85" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0</v>
       </c>
@@ -30549,8 +31021,12 @@
       <c r="DJ86">
         <v>0</v>
       </c>
+      <c r="DK86" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0</v>
       </c>
@@ -30893,8 +31369,12 @@
       <c r="DJ87">
         <v>0</v>
       </c>
+      <c r="DK87" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="1:114" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:115" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0</v>
       </c>
@@ -31236,6 +31716,955 @@
       </c>
       <c r="DJ88">
         <v>0</v>
+      </c>
+      <c r="DK88" s="26">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:115" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="29">
+        <f>SUM(A1:A88)</f>
+        <v>2276479445</v>
+      </c>
+      <c r="B89" s="29">
+        <f t="shared" ref="B89:BM89" si="3">SUM(B1:B88)</f>
+        <v>1792</v>
+      </c>
+      <c r="C89" s="29">
+        <f t="shared" si="3"/>
+        <v>78752376</v>
+      </c>
+      <c r="D89" s="29">
+        <f t="shared" si="3"/>
+        <v>1122931617</v>
+      </c>
+      <c r="E89" s="29">
+        <f t="shared" si="3"/>
+        <v>10954498</v>
+      </c>
+      <c r="F89" s="29">
+        <f t="shared" si="3"/>
+        <v>421214637</v>
+      </c>
+      <c r="G89" s="29">
+        <f t="shared" si="3"/>
+        <v>147999757</v>
+      </c>
+      <c r="H89" s="29">
+        <f t="shared" si="3"/>
+        <v>27234952</v>
+      </c>
+      <c r="I89" s="29">
+        <f t="shared" si="3"/>
+        <v>50355383</v>
+      </c>
+      <c r="J89" s="29">
+        <f t="shared" si="3"/>
+        <v>51990083</v>
+      </c>
+      <c r="K89" s="29">
+        <f t="shared" si="3"/>
+        <v>13516417</v>
+      </c>
+      <c r="L89" s="29">
+        <f t="shared" si="3"/>
+        <v>25555841</v>
+      </c>
+      <c r="M89" s="29">
+        <f t="shared" si="3"/>
+        <v>3618257</v>
+      </c>
+      <c r="N89" s="29">
+        <f t="shared" si="3"/>
+        <v>5713280</v>
+      </c>
+      <c r="O89" s="29">
+        <f t="shared" si="3"/>
+        <v>633856</v>
+      </c>
+      <c r="P89" s="29">
+        <f t="shared" si="3"/>
+        <v>854656</v>
+      </c>
+      <c r="Q89" s="29">
+        <f t="shared" si="3"/>
+        <v>1549248</v>
+      </c>
+      <c r="R89" s="29">
+        <f t="shared" si="3"/>
+        <v>552704</v>
+      </c>
+      <c r="S89" s="29">
+        <f t="shared" si="3"/>
+        <v>175360</v>
+      </c>
+      <c r="T89" s="29">
+        <f t="shared" si="3"/>
+        <v>5559040</v>
+      </c>
+      <c r="U89" s="29">
+        <f t="shared" si="3"/>
+        <v>47952</v>
+      </c>
+      <c r="V89" s="29">
+        <f t="shared" si="3"/>
+        <v>6934144</v>
+      </c>
+      <c r="W89" s="29">
+        <f t="shared" si="3"/>
+        <v>2569793</v>
+      </c>
+      <c r="X89" s="29">
+        <f t="shared" si="3"/>
+        <v>243968</v>
+      </c>
+      <c r="Y89" s="29">
+        <f t="shared" si="3"/>
+        <v>1111919</v>
+      </c>
+      <c r="Z89" s="29">
+        <f t="shared" si="3"/>
+        <v>9379840</v>
+      </c>
+      <c r="AA89" s="29">
+        <f t="shared" si="3"/>
+        <v>320768</v>
+      </c>
+      <c r="AB89" s="29">
+        <f t="shared" si="3"/>
+        <v>2560</v>
+      </c>
+      <c r="AC89" s="29">
+        <f t="shared" si="3"/>
+        <v>6912</v>
+      </c>
+      <c r="AD89" s="29">
+        <f t="shared" si="3"/>
+        <v>846592</v>
+      </c>
+      <c r="AE89" s="29">
+        <f t="shared" si="3"/>
+        <v>192256</v>
+      </c>
+      <c r="AF89" s="29">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
+      <c r="AG89" s="29">
+        <f t="shared" si="3"/>
+        <v>939264</v>
+      </c>
+      <c r="AH89" s="29">
+        <f t="shared" si="3"/>
+        <v>122624</v>
+      </c>
+      <c r="AI89" s="29">
+        <f t="shared" si="3"/>
+        <v>430336</v>
+      </c>
+      <c r="AJ89" s="29">
+        <f t="shared" si="3"/>
+        <v>375296</v>
+      </c>
+      <c r="AK89" s="29">
+        <f t="shared" si="3"/>
+        <v>3413760</v>
+      </c>
+      <c r="AL89" s="29">
+        <f t="shared" si="3"/>
+        <v>13312</v>
+      </c>
+      <c r="AM89" s="29">
+        <f t="shared" si="3"/>
+        <v>1425664</v>
+      </c>
+      <c r="AN89" s="29">
+        <f t="shared" si="3"/>
+        <v>30976</v>
+      </c>
+      <c r="AO89" s="29">
+        <f t="shared" si="3"/>
+        <v>660992</v>
+      </c>
+      <c r="AP89" s="29">
+        <f t="shared" si="3"/>
+        <v>922624</v>
+      </c>
+      <c r="AQ89" s="29">
+        <f t="shared" si="3"/>
+        <v>23318</v>
+      </c>
+      <c r="AR89" s="29">
+        <f t="shared" si="3"/>
+        <v>6400</v>
+      </c>
+      <c r="AS89" s="29">
+        <f t="shared" si="3"/>
+        <v>1683712</v>
+      </c>
+      <c r="AT89" s="29">
+        <f t="shared" si="3"/>
+        <v>319488</v>
+      </c>
+      <c r="AU89" s="29">
+        <f t="shared" si="3"/>
+        <v>70912</v>
+      </c>
+      <c r="AV89" s="29">
+        <f t="shared" si="3"/>
+        <v>96768</v>
+      </c>
+      <c r="AW89" s="29">
+        <f t="shared" si="3"/>
+        <v>74153</v>
+      </c>
+      <c r="AX89" s="29">
+        <f t="shared" si="3"/>
+        <v>2647808</v>
+      </c>
+      <c r="AY89" s="29">
+        <f t="shared" si="3"/>
+        <v>2490624</v>
+      </c>
+      <c r="AZ89" s="29">
+        <f t="shared" si="3"/>
+        <v>1192448</v>
+      </c>
+      <c r="BA89" s="29">
+        <f t="shared" si="3"/>
+        <v>250368</v>
+      </c>
+      <c r="BB89" s="29">
+        <f t="shared" si="3"/>
+        <v>899200</v>
+      </c>
+      <c r="BC89" s="29">
+        <f t="shared" si="3"/>
+        <v>5291648</v>
+      </c>
+      <c r="BD89" s="29">
+        <f t="shared" si="3"/>
+        <v>19456</v>
+      </c>
+      <c r="BE89" s="29">
+        <f t="shared" si="3"/>
+        <v>69888</v>
+      </c>
+      <c r="BF89" s="29">
+        <f t="shared" si="3"/>
+        <v>11008</v>
+      </c>
+      <c r="BG89" s="29">
+        <f t="shared" si="3"/>
+        <v>5888</v>
+      </c>
+      <c r="BH89" s="29">
+        <f t="shared" si="3"/>
+        <v>752128</v>
+      </c>
+      <c r="BI89" s="29">
+        <f t="shared" si="3"/>
+        <v>561024</v>
+      </c>
+      <c r="BJ89" s="29">
+        <f t="shared" si="3"/>
+        <v>532992</v>
+      </c>
+      <c r="BK89" s="29">
+        <f t="shared" si="3"/>
+        <v>13056</v>
+      </c>
+      <c r="BL89" s="29">
+        <f t="shared" si="3"/>
+        <v>336640</v>
+      </c>
+      <c r="BM89" s="29">
+        <f t="shared" si="3"/>
+        <v>151808</v>
+      </c>
+      <c r="BN89" s="29">
+        <f t="shared" ref="BN89:DJ89" si="4">SUM(BN1:BN88)</f>
+        <v>212232</v>
+      </c>
+      <c r="BO89" s="29">
+        <f t="shared" si="4"/>
+        <v>39168</v>
+      </c>
+      <c r="BP89" s="29">
+        <f t="shared" si="4"/>
+        <v>216576</v>
+      </c>
+      <c r="BQ89" s="29">
+        <f t="shared" si="4"/>
+        <v>8448</v>
+      </c>
+      <c r="BR89" s="29">
+        <f t="shared" si="4"/>
+        <v>21504</v>
+      </c>
+      <c r="BS89" s="29">
+        <f t="shared" si="4"/>
+        <v>42752</v>
+      </c>
+      <c r="BT89" s="29">
+        <f t="shared" si="4"/>
+        <v>16896</v>
+      </c>
+      <c r="BU89" s="29">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="BV89" s="29">
+        <f t="shared" si="4"/>
+        <v>13690</v>
+      </c>
+      <c r="BW89" s="29">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="BX89" s="29">
+        <f t="shared" si="4"/>
+        <v>6912</v>
+      </c>
+      <c r="BY89" s="29">
+        <f t="shared" si="4"/>
+        <v>11520</v>
+      </c>
+      <c r="BZ89" s="29">
+        <f t="shared" si="4"/>
+        <v>45312</v>
+      </c>
+      <c r="CA89" s="29">
+        <f t="shared" si="4"/>
+        <v>6144</v>
+      </c>
+      <c r="CB89" s="29">
+        <f t="shared" si="4"/>
+        <v>768</v>
+      </c>
+      <c r="CC89" s="29">
+        <f t="shared" si="4"/>
+        <v>12288</v>
+      </c>
+      <c r="CD89" s="29">
+        <f t="shared" si="4"/>
+        <v>89088</v>
+      </c>
+      <c r="CE89" s="29">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="CF89" s="29">
+        <f t="shared" si="4"/>
+        <v>103424</v>
+      </c>
+      <c r="CG89" s="29">
+        <f t="shared" si="4"/>
+        <v>25344</v>
+      </c>
+      <c r="CH89" s="29">
+        <f t="shared" si="4"/>
+        <v>150016</v>
+      </c>
+      <c r="CI89" s="29">
+        <f t="shared" si="4"/>
+        <v>65536</v>
+      </c>
+      <c r="CJ89" s="29">
+        <f t="shared" si="4"/>
+        <v>3072</v>
+      </c>
+      <c r="CK89" s="29">
+        <f t="shared" si="4"/>
+        <v>1536</v>
+      </c>
+      <c r="CL89" s="29">
+        <f t="shared" si="4"/>
+        <v>144640</v>
+      </c>
+      <c r="CM89" s="29">
+        <f t="shared" si="4"/>
+        <v>112128</v>
+      </c>
+      <c r="CN89" s="29">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="CO89" s="29">
+        <f t="shared" si="4"/>
+        <v>422144</v>
+      </c>
+      <c r="CP89" s="29">
+        <f t="shared" si="4"/>
+        <v>3072</v>
+      </c>
+      <c r="CQ89" s="29">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="CR89" s="29">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="CS89" s="29">
+        <f t="shared" si="4"/>
+        <v>768</v>
+      </c>
+      <c r="CT89" s="29">
+        <f t="shared" si="4"/>
+        <v>2048</v>
+      </c>
+      <c r="CU89" s="29">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="CV89" s="29">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="CW89" s="29">
+        <f t="shared" si="4"/>
+        <v>1792</v>
+      </c>
+      <c r="CX89" s="29">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="CY89" s="29">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="CZ89" s="29">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="DA89" s="29">
+        <f t="shared" si="4"/>
+        <v>2816</v>
+      </c>
+      <c r="DB89" s="29">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="DC89" s="29">
+        <f t="shared" si="4"/>
+        <v>6144</v>
+      </c>
+      <c r="DD89" s="29">
+        <f t="shared" si="4"/>
+        <v>2048</v>
+      </c>
+      <c r="DE89" s="29">
+        <f t="shared" si="4"/>
+        <v>8960</v>
+      </c>
+      <c r="DF89" s="29">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="DG89" s="29">
+        <f t="shared" si="4"/>
+        <v>18176</v>
+      </c>
+      <c r="DH89" s="29">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="DI89" s="29">
+        <f t="shared" si="4"/>
+        <v>1536</v>
+      </c>
+      <c r="DJ89" s="29">
+        <f t="shared" si="4"/>
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f>A89/2^32</f>
+        <v>0.5300341744441539</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ref="B90:I90" si="5">B89/2^32</f>
+        <v>4.1723251342773438E-7</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="5"/>
+        <v>1.8335966393351555E-2</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="5"/>
+        <v>0.26145289116539061</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="5"/>
+        <v>2.5505428202450275E-3</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="5"/>
+        <v>9.8071675049141049E-2</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>3.4458878682926297E-2</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="5"/>
+        <v>6.341131404042244E-3</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="5"/>
+        <v>1.1724276235327125E-2</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ref="J90" si="6">J89/2^32</f>
+        <v>1.2104884488508105E-2</v>
+      </c>
+      <c r="K90">
+        <f t="shared" ref="K90" si="7">K89/2^32</f>
+        <v>3.1470360700041056E-3</v>
+      </c>
+      <c r="L90">
+        <f t="shared" ref="L90" si="8">L89/2^32</f>
+        <v>5.9501829091459513E-3</v>
+      </c>
+      <c r="M90">
+        <f t="shared" ref="M90" si="9">M89/2^32</f>
+        <v>8.4244110621511936E-4</v>
+      </c>
+      <c r="N90">
+        <f t="shared" ref="N90" si="10">N89/2^32</f>
+        <v>1.3302266597747803E-3</v>
+      </c>
+      <c r="O90">
+        <f t="shared" ref="O90" si="11">O89/2^32</f>
+        <v>1.4758110046386719E-4</v>
+      </c>
+      <c r="P90">
+        <f t="shared" ref="P90" si="12">P89/2^32</f>
+        <v>1.989901065826416E-4</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" ref="Q90" si="13">Q89/2^32</f>
+        <v>3.6071240901947021E-4</v>
+      </c>
+      <c r="R90">
+        <f t="shared" ref="R90" si="14">R89/2^32</f>
+        <v>1.2868642807006836E-4</v>
+      </c>
+      <c r="S90">
+        <f t="shared" ref="S90" si="15">S89/2^32</f>
+        <v>4.0829181671142578E-5</v>
+      </c>
+      <c r="T90">
+        <f t="shared" ref="T90" si="16">T89/2^32</f>
+        <v>1.2943148612976074E-3</v>
+      </c>
+      <c r="U90">
+        <f t="shared" ref="U90" si="17">U89/2^32</f>
+        <v>1.1164695024490356E-5</v>
+      </c>
+      <c r="V90">
+        <f t="shared" ref="V90" si="18">V89/2^32</f>
+        <v>1.6144812107086182E-3</v>
+      </c>
+      <c r="W90">
+        <f t="shared" ref="W90" si="19">W89/2^32</f>
+        <v>5.983265582472086E-4</v>
+      </c>
+      <c r="X90">
+        <f t="shared" ref="X90" si="20">X89/2^32</f>
+        <v>5.6803226470947266E-5</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" ref="Y90" si="21">Y89/2^32</f>
+        <v>2.5888881646096706E-4</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" ref="Z90" si="22">Z89/2^32</f>
+        <v>2.1839141845703125E-3</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" ref="AA90" si="23">AA89/2^32</f>
+        <v>7.4684619903564453E-5</v>
+      </c>
+      <c r="AB90">
+        <f t="shared" ref="AB90" si="24">AB89/2^32</f>
+        <v>5.9604644775390625E-7</v>
+      </c>
+      <c r="AC90">
+        <f t="shared" ref="AC90" si="25">AC89/2^32</f>
+        <v>1.6093254089355469E-6</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" ref="AD90" si="26">AD89/2^32</f>
+        <v>1.971125602722168E-4</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" ref="AE90" si="27">AE89/2^32</f>
+        <v>4.4763088226318359E-5</v>
+      </c>
+      <c r="AF90">
+        <f t="shared" ref="AF90" si="28">AF89/2^32</f>
+        <v>1.1920928955078125E-7</v>
+      </c>
+      <c r="AG90">
+        <f t="shared" ref="AG90" si="29">AG89/2^32</f>
+        <v>2.186894416809082E-4</v>
+      </c>
+      <c r="AH90">
+        <f t="shared" ref="AH90" si="30">AH89/2^32</f>
+        <v>2.8550624847412109E-5</v>
+      </c>
+      <c r="AI90">
+        <f t="shared" ref="AI90" si="31">AI89/2^32</f>
+        <v>1.0019540786743164E-4</v>
+      </c>
+      <c r="AJ90">
+        <f t="shared" ref="AJ90" si="32">AJ89/2^32</f>
+        <v>8.7380409240722656E-5</v>
+      </c>
+      <c r="AK90">
+        <f t="shared" ref="AK90" si="33">AK89/2^32</f>
+        <v>7.9482793807983398E-4</v>
+      </c>
+      <c r="AL90">
+        <f t="shared" ref="AL90" si="34">AL89/2^32</f>
+        <v>3.0994415283203125E-6</v>
+      </c>
+      <c r="AM90">
+        <f t="shared" ref="AM90" si="35">AM89/2^32</f>
+        <v>3.3193826675415039E-4</v>
+      </c>
+      <c r="AN90">
+        <f t="shared" ref="AN90" si="36">AN89/2^32</f>
+        <v>7.2121620178222656E-6</v>
+      </c>
+      <c r="AO90">
+        <f t="shared" ref="AO90" si="37">AO89/2^32</f>
+        <v>1.5389919281005859E-4</v>
+      </c>
+      <c r="AP90">
+        <f t="shared" ref="AP90" si="38">AP89/2^32</f>
+        <v>2.1481513977050781E-4</v>
+      </c>
+      <c r="AQ90">
+        <f t="shared" ref="AQ90" si="39">AQ89/2^32</f>
+        <v>5.429144948720932E-6</v>
+      </c>
+      <c r="AR90">
+        <f t="shared" ref="AR90" si="40">AR89/2^32</f>
+        <v>1.4901161193847656E-6</v>
+      </c>
+      <c r="AS90">
+        <f t="shared" ref="AS90" si="41">AS89/2^32</f>
+        <v>3.9201974868774414E-4</v>
+      </c>
+      <c r="AT90">
+        <f t="shared" ref="AT90" si="42">AT89/2^32</f>
+        <v>7.43865966796875E-5</v>
+      </c>
+      <c r="AU90">
+        <f t="shared" ref="AU90" si="43">AU89/2^32</f>
+        <v>1.6510486602783203E-5</v>
+      </c>
+      <c r="AV90">
+        <f t="shared" ref="AV90" si="44">AV89/2^32</f>
+        <v>2.2530555725097656E-5</v>
+      </c>
+      <c r="AW90">
+        <f t="shared" ref="AW90" si="45">AW89/2^32</f>
+        <v>1.7265090718865395E-5</v>
+      </c>
+      <c r="AX90">
+        <f t="shared" ref="AX90" si="46">AX89/2^32</f>
+        <v>6.1649084091186523E-4</v>
+      </c>
+      <c r="AY90">
+        <f t="shared" ref="AY90" si="47">AY89/2^32</f>
+        <v>5.7989358901977539E-4</v>
+      </c>
+      <c r="AZ90">
+        <f t="shared" ref="AZ90" si="48">AZ89/2^32</f>
+        <v>2.7763843536376953E-4</v>
+      </c>
+      <c r="BA90">
+        <f t="shared" ref="BA90" si="49">BA89/2^32</f>
+        <v>5.8293342590332031E-5</v>
+      </c>
+      <c r="BB90">
+        <f t="shared" ref="BB90" si="50">BB89/2^32</f>
+        <v>2.0936131477355957E-4</v>
+      </c>
+      <c r="BC90">
+        <f t="shared" ref="BC90" si="51">BC89/2^32</f>
+        <v>1.2320578098297119E-3</v>
+      </c>
+      <c r="BD90">
+        <f t="shared" ref="BD90" si="52">BD89/2^32</f>
+        <v>4.5299530029296875E-6</v>
+      </c>
+      <c r="BE90">
+        <f t="shared" ref="BE90" si="53">BE89/2^32</f>
+        <v>1.6272068023681641E-5</v>
+      </c>
+      <c r="BF90">
+        <f t="shared" ref="BF90" si="54">BF89/2^32</f>
+        <v>2.5629997253417969E-6</v>
+      </c>
+      <c r="BG90">
+        <f t="shared" ref="BG90" si="55">BG89/2^32</f>
+        <v>1.3709068298339844E-6</v>
+      </c>
+      <c r="BH90">
+        <f t="shared" ref="BH90" si="56">BH89/2^32</f>
+        <v>1.7511844635009766E-4</v>
+      </c>
+      <c r="BI90">
+        <f t="shared" ref="BI90" si="57">BI89/2^32</f>
+        <v>1.3062357902526855E-4</v>
+      </c>
+      <c r="BJ90">
+        <f t="shared" ref="BJ90" si="58">BJ89/2^32</f>
+        <v>1.2409687042236328E-4</v>
+      </c>
+      <c r="BK90">
+        <f t="shared" ref="BK90" si="59">BK89/2^32</f>
+        <v>3.0398368835449219E-6</v>
+      </c>
+      <c r="BL90">
+        <f t="shared" ref="BL90" si="60">BL89/2^32</f>
+        <v>7.8380107879638672E-5</v>
+      </c>
+      <c r="BM90">
+        <f t="shared" ref="BM90" si="61">BM89/2^32</f>
+        <v>3.5345554351806641E-5</v>
+      </c>
+      <c r="BN90">
+        <f t="shared" ref="BN90" si="62">BN89/2^32</f>
+        <v>4.9414113163948059E-5</v>
+      </c>
+      <c r="BO90">
+        <f t="shared" ref="BO90" si="63">BO89/2^32</f>
+        <v>9.1195106506347656E-6</v>
+      </c>
+      <c r="BP90">
+        <f t="shared" ref="BP90" si="64">BP89/2^32</f>
+        <v>5.0425529479980469E-5</v>
+      </c>
+      <c r="BQ90">
+        <f t="shared" ref="BQ90" si="65">BQ89/2^32</f>
+        <v>1.9669532775878906E-6</v>
+      </c>
+      <c r="BR90">
+        <f t="shared" ref="BR90" si="66">BR89/2^32</f>
+        <v>5.0067901611328125E-6</v>
+      </c>
+      <c r="BS90">
+        <f t="shared" ref="BS90" si="67">BS89/2^32</f>
+        <v>9.9539756774902344E-6</v>
+      </c>
+      <c r="BT90">
+        <f t="shared" ref="BT90" si="68">BT89/2^32</f>
+        <v>3.9339065551757813E-6</v>
+      </c>
+      <c r="BU90">
+        <f t="shared" ref="BU90" si="69">BU89/2^32</f>
+        <v>1.1920928955078125E-7</v>
+      </c>
+      <c r="BV90">
+        <f t="shared" ref="BV90" si="70">BV89/2^32</f>
+        <v>3.1874515116214752E-6</v>
+      </c>
+      <c r="BW90">
+        <f t="shared" ref="BW90" si="71">BW89/2^32</f>
+        <v>1.1920928955078125E-7</v>
+      </c>
+      <c r="BX90">
+        <f t="shared" ref="BX90" si="72">BX89/2^32</f>
+        <v>1.6093254089355469E-6</v>
+      </c>
+      <c r="BY90">
+        <f t="shared" ref="BY90" si="73">BY89/2^32</f>
+        <v>2.6822090148925781E-6</v>
+      </c>
+      <c r="BZ90">
+        <f t="shared" ref="BZ90" si="74">BZ89/2^32</f>
+        <v>1.0550022125244141E-5</v>
+      </c>
+      <c r="CA90">
+        <f t="shared" ref="CA90" si="75">CA89/2^32</f>
+        <v>1.430511474609375E-6</v>
+      </c>
+      <c r="CB90">
+        <f t="shared" ref="CB90" si="76">CB89/2^32</f>
+        <v>1.7881393432617188E-7</v>
+      </c>
+      <c r="CC90">
+        <f t="shared" ref="CC90" si="77">CC89/2^32</f>
+        <v>2.86102294921875E-6</v>
+      </c>
+      <c r="CD90">
+        <f t="shared" ref="CD90" si="78">CD89/2^32</f>
+        <v>2.0742416381835938E-5</v>
+      </c>
+      <c r="CE90">
+        <f t="shared" ref="CE90" si="79">CE89/2^32</f>
+        <v>5.9604644775390625E-8</v>
+      </c>
+      <c r="CF90">
+        <f t="shared" ref="CF90" si="80">CF89/2^32</f>
+        <v>2.4080276489257813E-5</v>
+      </c>
+      <c r="CG90">
+        <f t="shared" ref="CG90" si="81">CG89/2^32</f>
+        <v>5.9008598327636719E-6</v>
+      </c>
+      <c r="CH90">
+        <f t="shared" ref="CH90" si="82">CH89/2^32</f>
+        <v>3.4928321838378906E-5</v>
+      </c>
+      <c r="CI90">
+        <f t="shared" ref="CI90" si="83">CI89/2^32</f>
+        <v>1.52587890625E-5</v>
+      </c>
+      <c r="CJ90">
+        <f t="shared" ref="CJ90" si="84">CJ89/2^32</f>
+        <v>7.152557373046875E-7</v>
+      </c>
+      <c r="CK90">
+        <f t="shared" ref="CK90" si="85">CK89/2^32</f>
+        <v>3.5762786865234375E-7</v>
+      </c>
+      <c r="CL90">
+        <f t="shared" ref="CL90" si="86">CL89/2^32</f>
+        <v>3.3676624298095703E-5</v>
+      </c>
+      <c r="CM90">
+        <f t="shared" ref="CM90" si="87">CM89/2^32</f>
+        <v>2.6106834411621094E-5</v>
+      </c>
+      <c r="CN90">
+        <f t="shared" ref="CN90" si="88">CN89/2^32</f>
+        <v>5.9604644775390625E-8</v>
+      </c>
+      <c r="CO90">
+        <f t="shared" ref="CO90" si="89">CO89/2^32</f>
+        <v>9.8288059234619141E-5</v>
+      </c>
+      <c r="CP90">
+        <f t="shared" ref="CP90" si="90">CP89/2^32</f>
+        <v>7.152557373046875E-7</v>
+      </c>
+      <c r="CQ90">
+        <f t="shared" ref="CQ90" si="91">CQ89/2^32</f>
+        <v>2.384185791015625E-7</v>
+      </c>
+      <c r="CR90">
+        <f t="shared" ref="CR90" si="92">CR89/2^32</f>
+        <v>5.9604644775390625E-8</v>
+      </c>
+      <c r="CS90">
+        <f t="shared" ref="CS90" si="93">CS89/2^32</f>
+        <v>1.7881393432617188E-7</v>
+      </c>
+      <c r="CT90">
+        <f t="shared" ref="CT90" si="94">CT89/2^32</f>
+        <v>4.76837158203125E-7</v>
+      </c>
+      <c r="CU90">
+        <f t="shared" ref="CU90" si="95">CU89/2^32</f>
+        <v>5.9604644775390625E-8</v>
+      </c>
+      <c r="CV90">
+        <f t="shared" ref="CV90" si="96">CV89/2^32</f>
+        <v>1.1920928955078125E-7</v>
+      </c>
+      <c r="CW90">
+        <f t="shared" ref="CW90" si="97">CW89/2^32</f>
+        <v>4.1723251342773438E-7</v>
+      </c>
+      <c r="CX90">
+        <f t="shared" ref="CX90" si="98">CX89/2^32</f>
+        <v>1.1920928955078125E-7</v>
+      </c>
+      <c r="CY90">
+        <f t="shared" ref="CY90" si="99">CY89/2^32</f>
+        <v>5.9604644775390625E-8</v>
+      </c>
+      <c r="CZ90">
+        <f t="shared" ref="CZ90" si="100">CZ89/2^32</f>
+        <v>2.384185791015625E-7</v>
+      </c>
+      <c r="DA90">
+        <f t="shared" ref="DA90" si="101">DA89/2^32</f>
+        <v>6.5565109252929688E-7</v>
+      </c>
+      <c r="DB90">
+        <f t="shared" ref="DB90" si="102">DB89/2^32</f>
+        <v>5.9604644775390625E-8</v>
+      </c>
+      <c r="DC90">
+        <f t="shared" ref="DC90" si="103">DC89/2^32</f>
+        <v>1.430511474609375E-6</v>
+      </c>
+      <c r="DD90">
+        <f t="shared" ref="DD90" si="104">DD89/2^32</f>
+        <v>4.76837158203125E-7</v>
+      </c>
+      <c r="DE90">
+        <f t="shared" ref="DE90" si="105">DE89/2^32</f>
+        <v>2.0861625671386719E-6</v>
+      </c>
+      <c r="DF90">
+        <f t="shared" ref="DF90" si="106">DF89/2^32</f>
+        <v>1.1920928955078125E-7</v>
+      </c>
+      <c r="DG90">
+        <f t="shared" ref="DG90" si="107">DG89/2^32</f>
+        <v>4.2319297790527344E-6</v>
+      </c>
+      <c r="DH90">
+        <f t="shared" ref="DH90" si="108">DH89/2^32</f>
+        <v>1.1920928955078125E-7</v>
+      </c>
+      <c r="DI90">
+        <f t="shared" ref="DI90" si="109">DI89/2^32</f>
+        <v>3.5762786865234375E-7</v>
+      </c>
+      <c r="DJ90">
+        <f t="shared" ref="DJ90" si="110">DJ89/2^32</f>
+        <v>1.430511474609375E-6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.5300341744441539</v>
+      </c>
+      <c r="B91">
+        <v>4.1723251342773438E-7</v>
+      </c>
+      <c r="C91">
+        <v>1.8335966393351555E-2</v>
+      </c>
+      <c r="D91">
+        <v>0.26145289116539061</v>
+      </c>
+      <c r="E91">
+        <v>2.5505428202450275E-3</v>
+      </c>
+      <c r="F91">
+        <v>9.8071675049141049E-2</v>
+      </c>
+      <c r="G91">
+        <v>3.4458878682926297E-2</v>
+      </c>
+      <c r="H91">
+        <v>6.341131404042244E-3</v>
+      </c>
+      <c r="I91">
+        <v>1.1724276235327125E-2</v>
       </c>
     </row>
   </sheetData>
@@ -31399,14 +32828,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -31548,7 +32977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
@@ -31561,22 +32990,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -31593,7 +33022,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -31605,12 +33034,12 @@
       <c r="D3">
         <v>8.3894418695722398E-3</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="20">
         <v>7.3690012471105497E-6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -31622,12 +33051,12 @@
       <c r="D4">
         <v>8.4280292348128706E-3</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="20">
         <v>7.8223655200594097E-5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B5">
@@ -31639,7 +33068,7 @@
       <c r="D5">
         <v>8.4280292348128706E-3</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="20">
         <v>7.8223655200594097E-5</v>
       </c>
     </row>
@@ -31791,85 +33220,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19">
         <v>0.97926597607232702</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="19">
         <v>0.97695648426540205</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="19">
         <v>0.96130035127637903</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="19">
         <v>0.95560770479088997</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="19">
         <v>1.0071997513406199</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="19">
         <v>1.01142237864891</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="19">
         <v>1.05987953907614</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="19">
         <v>1.0804389927088001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="19">
         <v>1.00716995749302</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="19">
         <v>1.01139200935079</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="19">
         <v>1.0598409517109</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="19">
         <v>1.08036813805485</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="19">
         <v>1.00716995749302</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="19">
         <v>1.01139200935079</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="19">
         <v>1.0598409517109</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="19">
         <v>1.08036813805485</v>
       </c>
     </row>
